--- a/biology/Médecine/Gilbert_Sourdille/Gilbert_Sourdille.xlsx
+++ b/biology/Médecine/Gilbert_Sourdille/Gilbert_Sourdille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Sourdille est un chirurgien ophtalmologiste français né le 21 septembre 1867 à Basse-Indre et mort le 2 janvier 1962 à Nantes.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Philippe Marie Sourdille est le fils de l'industriel Philippe Sourdille et de Victorine Éloïse Baudot. Gendre du maire de Saint-Nazaire Baptiste Lechat, il est le père de Dr Gabriel Sourdille.
-Avec son frère Maurice, il fonde à Nantes une clinique privée en 1928 (la clinique Sourdille, devenue Institut ophtalmologique Sourdille-Atlantique)[1].
+Avec son frère Maurice, il fonde à Nantes une clinique privée en 1928 (la clinique Sourdille, devenue Institut ophtalmologique Sourdille-Atlantique).
 De 1932 à 1937, il est directeur de l'École de médecine de Nantes. Chirurgien-chef des hôpitaux de Nantes, il est également chef du laboratoire de la clinique ophtalmologique de la faculté de médecine de Paris.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rapport sur les travaux de la Société académique de la Loire-Inférieure pendant l'année 1898 (1899)
 Rapport de la Commission des prix sur le concours de l'année 1897 (1897)
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur
 Officier d'Académie
@@ -609,7 +627,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulevard des Professeurs Sourdille, à Nantes
 Rue du Docteur Gilbert Sourdille, Le Pellerin</t>
